--- a/GRFS.xlsx
+++ b/GRFS.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7934172-280E-4CD1-BAB9-61FF5330DA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A11B8B5-150B-49E3-974B-4B3E2520233A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11490" yWindow="2310" windowWidth="39435" windowHeight="17385" xr2:uid="{971FB6C9-5119-4681-B8F2-50DD951A99B1}"/>
+    <workbookView xWindow="-27015" yWindow="750" windowWidth="26490" windowHeight="19650" xr2:uid="{971FB6C9-5119-4681-B8F2-50DD951A99B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Price</t>
   </si>
@@ -56,17 +57,69 @@
     <t>EV</t>
   </si>
   <si>
-    <t>Q222</t>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>SG&amp;A</t>
+  </si>
+  <si>
+    <t>Operating Expenses</t>
+  </si>
+  <si>
+    <t>Operating Income</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -88,18 +141,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -118,9 +177,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -158,7 +217,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -264,7 +323,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -406,7 +465,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -416,9 +475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB559B5D-23E2-4779-94FB-BC095CB21ACB}">
   <dimension ref="K2:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -427,7 +484,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>11.57</v>
+        <v>9.4700000000000006</v>
       </c>
     </row>
     <row r="3" spans="11:13" x14ac:dyDescent="0.2">
@@ -448,7 +505,7 @@
       </c>
       <c r="L4" s="2">
         <f>+L2*L3</f>
-        <v>7955.0102855600007</v>
+        <v>6511.1449787600013</v>
       </c>
     </row>
     <row r="5" spans="11:13" x14ac:dyDescent="0.2">
@@ -456,7 +513,8 @@
         <v>3</v>
       </c>
       <c r="L5" s="2">
-        <v>0</v>
+        <f>57.843+655.941+2113.221+182.988</f>
+        <v>3009.9929999999999</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>6</v>
@@ -467,7 +525,8 @@
         <v>4</v>
       </c>
       <c r="L6" s="2">
-        <v>9380.9</v>
+        <f>8752.262+2757.328</f>
+        <v>11509.59</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>6</v>
@@ -479,10 +538,217 @@
       </c>
       <c r="L7" s="2">
         <f>+L4-L5+L6</f>
-        <v>17335.910285559999</v>
+        <v>15010.741978760001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4D87F7-FB7F-4579-B261-B64D30F7C791}">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4">
+        <v>1663.4580000000001</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4">
+        <v>1817.9069999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4">
+        <v>1055.7940000000001</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4">
+        <v>1147.4639999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" ref="C5:G5" si="0">+C3-C4</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>607.66399999999999</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <f>+H3-H4</f>
+        <v>670.44299999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
+        <v>85.593000000000004</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4">
+        <v>90.694999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4">
+        <v>302.57400000000001</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4">
+        <v>327.33600000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" ref="C8:G8" si="1">+C6+C7</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="1"/>
+        <v>388.16700000000003</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <f>+H6+H7</f>
+        <v>418.03100000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" ref="C9:G9" si="2">+C5-C8</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="2"/>
+        <v>219.49699999999996</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <f>+H5-H8</f>
+        <v>252.41199999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D11" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{C245DB9B-C849-49DF-B9FB-2A728B9369A2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/GRFS.xlsx
+++ b/GRFS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A11B8B5-150B-49E3-974B-4B3E2520233A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D7194D-699E-4AD8-840E-0CE1B3AA90F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27015" yWindow="750" windowWidth="26490" windowHeight="19650" xr2:uid="{971FB6C9-5119-4681-B8F2-50DD951A99B1}"/>
+    <workbookView xWindow="-30915" yWindow="0" windowWidth="29955" windowHeight="20700" activeTab="1" xr2:uid="{971FB6C9-5119-4681-B8F2-50DD951A99B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -475,7 +475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB559B5D-23E2-4779-94FB-BC095CB21ACB}">
   <dimension ref="K2:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -548,13 +548,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4D87F7-FB7F-4579-B261-B64D30F7C791}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -595,155 +595,155 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4">
-        <v>1663.4580000000001</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4">
-        <v>1817.9069999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4">
-        <v>1055.7940000000001</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4">
-        <v>1147.4639999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="4">
-        <f t="shared" ref="C5:G5" si="0">+C3-C4</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <f t="shared" si="0"/>
-        <v>607.66399999999999</v>
-      </c>
-      <c r="E5" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <f>+H3-H4</f>
-        <v>670.44299999999998</v>
-      </c>
-    </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4">
-        <v>85.593000000000004</v>
+        <v>1663.4580000000001</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4">
-        <v>90.694999999999993</v>
+        <v>1817.9069999999999</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4">
-        <v>302.57400000000001</v>
+        <v>1055.7940000000001</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4">
-        <v>327.33600000000001</v>
+        <v>1147.4639999999999</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" ref="C8:G8" si="0">+C6-C7</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>607.66399999999999</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <f>+H6-H7</f>
+        <v>670.44299999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4">
+        <v>85.593000000000004</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4">
+        <v>90.694999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4">
+        <v>302.57400000000001</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4">
+        <v>327.33600000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="4">
-        <f t="shared" ref="C8:G8" si="1">+C6+C7</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="C11" s="4">
+        <f t="shared" ref="C11:G11" si="1">+C9+C10</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
         <f t="shared" si="1"/>
         <v>388.16700000000003</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E11" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F11" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G11" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H8" s="4">
-        <f>+H6+H7</f>
+      <c r="H11" s="4">
+        <f>+H9+H10</f>
         <v>418.03100000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="4">
-        <f t="shared" ref="C9:G9" si="2">+C5-C8</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="C12" s="4">
+        <f t="shared" ref="C12:G12" si="2">+C8-C11</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
         <f t="shared" si="2"/>
         <v>219.49699999999996</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E12" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F12" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G12" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H9" s="4">
-        <f>+H5-H8</f>
+      <c r="H12" s="4">
+        <f>+H8-H11</f>
         <v>252.41199999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D11" s="4"/>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D14" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/GRFS.xlsx
+++ b/GRFS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D7194D-699E-4AD8-840E-0CE1B3AA90F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69A48FF-F2E2-4492-85DC-C3FE25DC5CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30915" yWindow="0" windowWidth="29955" windowHeight="20700" activeTab="1" xr2:uid="{971FB6C9-5119-4681-B8F2-50DD951A99B1}"/>
+    <workbookView xWindow="61160" yWindow="2970" windowWidth="17520" windowHeight="15480" xr2:uid="{971FB6C9-5119-4681-B8F2-50DD951A99B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>Price</t>
   </si>
@@ -103,13 +103,58 @@
   </si>
   <si>
     <t>Operating Income</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>Biopharma</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Bio Supplies</t>
+  </si>
+  <si>
+    <t>Diagnostics</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>CX</t>
+  </si>
+  <si>
+    <t>FCF</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Pretax Income</t>
+  </si>
+  <si>
+    <t>Interest Income</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -120,6 +165,13 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -145,7 +197,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -156,6 +208,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -475,19 +532,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB559B5D-23E2-4779-94FB-BC095CB21ACB}">
   <dimension ref="K2:M7"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K2" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>9.4700000000000006</v>
-      </c>
-    </row>
-    <row r="3" spans="11:13" x14ac:dyDescent="0.2">
+        <v>7.38</v>
+      </c>
+    </row>
+    <row r="3" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K3" t="s">
         <v>1</v>
       </c>
@@ -499,46 +556,46 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K4" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="2">
         <f>+L2*L3</f>
-        <v>6511.1449787600013</v>
-      </c>
-    </row>
-    <row r="5" spans="11:13" x14ac:dyDescent="0.2">
+        <v>5074.1552210400005</v>
+      </c>
+    </row>
+    <row r="5" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K5" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="2">
-        <f>57.843+655.941+2113.221+182.988</f>
-        <v>3009.9929999999999</v>
+        <f>490.492+979.78</f>
+        <v>1470.2719999999999</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="11:13" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K6" t="s">
         <v>4</v>
       </c>
       <c r="L6" s="2">
-        <f>8752.262+2757.328</f>
-        <v>11509.59</v>
+        <f>9490.644+676.087</f>
+        <v>10166.731</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="11:13" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K7" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="2">
         <f>+L4-L5+L6</f>
-        <v>15010.741978760001</v>
+        <v>13770.614221039999</v>
       </c>
     </row>
   </sheetData>
@@ -548,28 +605,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4D87F7-FB7F-4579-B261-B64D30F7C791}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD3"/>
+      <selection pane="bottomRight" activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="9.140625" style="3"/>
+    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
@@ -594,156 +651,659 @@
       <c r="J2" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="K2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2">
+        <v>2020</v>
+      </c>
+      <c r="R2">
+        <v>2021</v>
+      </c>
+      <c r="S2">
+        <v>2022</v>
+      </c>
+      <c r="T2">
+        <v>2023</v>
+      </c>
+      <c r="U2">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4">
+        <v>63.344000000000001</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4">
+        <v>69.86</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="T3" s="2">
+        <v>203.45</v>
+      </c>
+      <c r="U3" s="2">
+        <v>209.232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <v>41.284999999999997</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4">
+        <v>52.404000000000003</v>
+      </c>
+      <c r="T4" s="2">
+        <v>159.95699999999999</v>
+      </c>
+      <c r="U4" s="2">
+        <v>215.66399999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
+        <v>172.49799999999999</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4">
+        <v>166.06299999999999</v>
+      </c>
+      <c r="T5" s="2">
+        <v>670.26900000000001</v>
+      </c>
+      <c r="U5" s="2">
+        <v>644.89800000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
+        <v>1492.423</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4">
+        <v>1687.4870000000001</v>
+      </c>
+      <c r="T6" s="2">
+        <v>5558.3010000000004</v>
+      </c>
+      <c r="U6" s="2">
+        <v>6142.5879999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6">
         <v>1663.4580000000001</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6">
+        <v>1769.55</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6">
         <v>1817.9069999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="I7" s="6"/>
+      <c r="J7" s="6">
+        <v>1975.8140000000001</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>5340.0379999999996</v>
+      </c>
+      <c r="R7" s="7">
+        <v>4933.1180000000004</v>
+      </c>
+      <c r="S7" s="7">
+        <v>6063.9669999999996</v>
+      </c>
+      <c r="T7" s="7">
+        <f>SUM(T3:T6)</f>
+        <v>6591.9770000000008</v>
+      </c>
+      <c r="U7" s="7">
+        <f>SUM(U3:U6)</f>
+        <v>7212.3819999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4">
         <v>1055.7940000000001</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4">
         <v>1147.4639999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="Q8" s="2">
+        <v>3084.873</v>
+      </c>
+      <c r="R8" s="2">
+        <v>2970.5219999999999</v>
+      </c>
+      <c r="S8" s="2">
+        <v>3832.4369999999999</v>
+      </c>
+      <c r="T8" s="2">
+        <v>4097.4059999999999</v>
+      </c>
+      <c r="U8" s="2">
+        <v>4417.8440000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="4">
-        <f t="shared" ref="C8:G8" si="0">+C6-C7</f>
+      <c r="C9" s="4">
+        <f t="shared" ref="C9:G9" si="0">+C7-C8</f>
         <v>0</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D9" s="4">
         <f t="shared" si="0"/>
         <v>607.66399999999999</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E9" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
+        <v>1769.55</v>
+      </c>
+      <c r="G9" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
-        <f>+H6-H7</f>
+      <c r="H9" s="4">
+        <f>+H7-H8</f>
         <v>670.44299999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="Q9" s="2">
+        <f>+Q7-Q8</f>
+        <v>2255.1649999999995</v>
+      </c>
+      <c r="R9" s="2">
+        <f>+R7-R8</f>
+        <v>1962.5960000000005</v>
+      </c>
+      <c r="S9" s="2">
+        <f>+S7-S8</f>
+        <v>2231.5299999999997</v>
+      </c>
+      <c r="T9" s="2">
+        <f>+T7-T8</f>
+        <v>2494.5710000000008</v>
+      </c>
+      <c r="U9" s="2">
+        <f>+U7-U8</f>
+        <v>2794.5379999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4">
-        <v>85.593000000000004</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4">
-        <v>90.694999999999993</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>19</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4">
-        <v>302.57400000000001</v>
+        <v>85.593000000000004</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4">
+        <v>90.694999999999993</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="Q10" s="2">
+        <v>294.21600000000001</v>
+      </c>
+      <c r="R10" s="2">
+        <v>354.88099999999997</v>
+      </c>
+      <c r="S10" s="2">
+        <v>361.14</v>
+      </c>
+      <c r="T10" s="2">
+        <v>395.28199999999998</v>
+      </c>
+      <c r="U10" s="2">
+        <v>384.036</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4">
+        <v>302.57400000000001</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4">
         <v>327.33600000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="Q11" s="2">
+        <v>985.61599999999999</v>
+      </c>
+      <c r="R11" s="2">
+        <v>1061.508</v>
+      </c>
+      <c r="S11" s="2">
+        <v>1190.423</v>
+      </c>
+      <c r="T11" s="2">
+        <v>1366.673</v>
+      </c>
+      <c r="U11" s="2">
+        <v>1255.2909999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="4">
-        <f t="shared" ref="C11:G11" si="1">+C9+C10</f>
+      <c r="C12" s="4">
+        <f t="shared" ref="C12:G12" si="1">+C10+C11</f>
         <v>0</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D12" s="4">
         <f t="shared" si="1"/>
         <v>388.16700000000003</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E12" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F12" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G12" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H11" s="4">
-        <f>+H9+H10</f>
+      <c r="H12" s="4">
+        <f>+H10+H11</f>
         <v>418.03100000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="Q12" s="2">
+        <f t="shared" ref="Q12:S12" si="2">+Q11+Q10</f>
+        <v>1279.8319999999999</v>
+      </c>
+      <c r="R12" s="2">
+        <f t="shared" si="2"/>
+        <v>1416.3890000000001</v>
+      </c>
+      <c r="S12" s="2">
+        <f t="shared" si="2"/>
+        <v>1551.5630000000001</v>
+      </c>
+      <c r="T12" s="2">
+        <f>+T11+T10</f>
+        <v>1761.9549999999999</v>
+      </c>
+      <c r="U12" s="2">
+        <f>+U11+U10</f>
+        <v>1639.327</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="4">
-        <f t="shared" ref="C12:G12" si="2">+C8-C11</f>
+      <c r="C13" s="4">
+        <f t="shared" ref="C13:G13" si="3">+C9-C12</f>
         <v>0</v>
       </c>
-      <c r="D12" s="4">
-        <f t="shared" si="2"/>
+      <c r="D13" s="4">
+        <f t="shared" si="3"/>
         <v>219.49699999999996</v>
       </c>
-      <c r="E12" s="4">
-        <f t="shared" si="2"/>
+      <c r="E13" s="4">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F12" s="4">
-        <f t="shared" si="2"/>
+      <c r="F13" s="4">
+        <f t="shared" si="3"/>
+        <v>1769.55</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G12" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <f>+H8-H11</f>
+      <c r="H13" s="4">
+        <f>+H9-H12</f>
         <v>252.41199999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="Q13" s="2">
+        <f t="shared" ref="Q13:S13" si="4">+Q9-Q12</f>
+        <v>975.33299999999963</v>
+      </c>
+      <c r="R13" s="2">
+        <f t="shared" si="4"/>
+        <v>546.20700000000033</v>
+      </c>
+      <c r="S13" s="2">
+        <f t="shared" si="4"/>
+        <v>679.96699999999964</v>
+      </c>
+      <c r="T13" s="2">
+        <f>+T9-T12</f>
+        <v>732.61600000000089</v>
+      </c>
+      <c r="U13" s="2">
+        <f>+U9-U12</f>
+        <v>1155.2109999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="4"/>
       <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="Q14" s="2">
+        <v>-249.63900000000001</v>
+      </c>
+      <c r="R14" s="2">
+        <f>-267.702+11.551</f>
+        <v>-256.15100000000001</v>
+      </c>
+      <c r="S14" s="2">
+        <f>-478.323+33.859</f>
+        <v>-444.464</v>
+      </c>
+      <c r="T14" s="2">
+        <f>-596.864+62.326</f>
+        <v>-534.53800000000001</v>
+      </c>
+      <c r="U14" s="2">
+        <f>-714.765+44.423</f>
+        <v>-670.34199999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="Q15" s="2">
+        <f>+Q13+Q14</f>
+        <v>725.69399999999962</v>
+      </c>
+      <c r="R15" s="2">
+        <f>+R13+R14</f>
+        <v>290.05600000000032</v>
+      </c>
+      <c r="S15" s="2">
+        <f>+S13+S14</f>
+        <v>235.50299999999964</v>
+      </c>
+      <c r="T15" s="2">
+        <f>+T13+T14</f>
+        <v>198.07800000000088</v>
+      </c>
+      <c r="U15" s="2">
+        <f>+U13+U14</f>
+        <v>484.86899999999957</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="Q16" s="2">
+        <v>169.63900000000001</v>
+      </c>
+      <c r="R16" s="2">
+        <v>85.126000000000005</v>
+      </c>
+      <c r="S16" s="2">
+        <v>90.111000000000004</v>
+      </c>
+      <c r="T16" s="2">
+        <v>43.348999999999997</v>
+      </c>
+      <c r="U16" s="2">
+        <v>231.19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="Q17" s="2">
+        <f t="shared" ref="Q17:S17" si="5">+Q15-Q16</f>
+        <v>556.05499999999961</v>
+      </c>
+      <c r="R17" s="2">
+        <f t="shared" si="5"/>
+        <v>204.93000000000032</v>
+      </c>
+      <c r="S17" s="2">
+        <f t="shared" si="5"/>
+        <v>145.39199999999965</v>
+      </c>
+      <c r="T17" s="2">
+        <f>+T15-T16</f>
+        <v>154.72900000000089</v>
+      </c>
+      <c r="U17" s="2">
+        <f>+U15-U16</f>
+        <v>253.67899999999958</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q19" s="8">
+        <f>+Q9/Q7</f>
+        <v>0.42231253785085421</v>
+      </c>
+      <c r="R19" s="8">
+        <f>+R9/R7</f>
+        <v>0.39784087873024732</v>
+      </c>
+      <c r="S19" s="8">
+        <f>+S9/S7</f>
+        <v>0.36799837466133967</v>
+      </c>
+      <c r="T19" s="8">
+        <f>+T9/T7</f>
+        <v>0.3784253191417386</v>
+      </c>
+      <c r="U19" s="8">
+        <f>+U9/U7</f>
+        <v>0.38746394741709461</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="Q22" s="2">
+        <v>1110.336</v>
+      </c>
+      <c r="R22" s="2">
+        <v>596.97500000000002</v>
+      </c>
+      <c r="S22" s="2">
+        <v>-10.867000000000001</v>
+      </c>
+      <c r="T22" s="2">
+        <v>218.69</v>
+      </c>
+      <c r="U22" s="2">
+        <v>902.17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="Q23" s="2">
+        <v>-280.154</v>
+      </c>
+      <c r="R23" s="2">
+        <v>-315.08800000000002</v>
+      </c>
+      <c r="S23" s="2">
+        <v>-283.803</v>
+      </c>
+      <c r="T23" s="2">
+        <v>-224.43799999999999</v>
+      </c>
+      <c r="U23" s="2">
+        <v>-232.53800000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="Q24" s="2">
+        <f>+Q22+Q23</f>
+        <v>830.18200000000002</v>
+      </c>
+      <c r="R24" s="2">
+        <f>+R22+R23</f>
+        <v>281.887</v>
+      </c>
+      <c r="S24" s="2">
+        <f>+S22+S23</f>
+        <v>-294.67</v>
+      </c>
+      <c r="T24" s="2">
+        <f>+T22+T23</f>
+        <v>-5.7479999999999905</v>
+      </c>
+      <c r="U24" s="2">
+        <f>+U22+U23</f>
+        <v>669.63199999999995</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
